--- a/biology/Zoologie/Cynarctina/Cynarctina.xlsx
+++ b/biology/Zoologie/Cynarctina/Cynarctina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynartines
-Les Cynarctina (Cynartines) sont une sous-tribu éteinte de canidés de la sous-famille des Borophaginae et originaires d’Amérique du Nord[2].
-Ils ont vécu au Miocène moyen du Langhien, jusqu'au début du Miocène supérieur (Tortonien), il y a environ entre 15,97 et 10,3 Ma (millions d'années), existant pendant environ 5,7 millions d'années. Les cynarctines avaient des cuspides arrondies sur leurs molaires, semblables à celles observées chez des ours modernes, ce qui suggère qu'ils étaient probablement omnivores[3].
+Les Cynarctina (Cynartines) sont une sous-tribu éteinte de canidés de la sous-famille des Borophaginae et originaires d’Amérique du Nord.
+Ils ont vécu au Miocène moyen du Langhien, jusqu'au début du Miocène supérieur (Tortonien), il y a environ entre 15,97 et 10,3 Ma (millions d'années), existant pendant environ 5,7 millions d'années. Les cynarctines avaient des cuspides arrondies sur leurs molaires, semblables à celles observées chez des ours modernes, ce qui suggère qu'ils étaient probablement omnivores.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (16 mars 2020)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (16 mars 2020) :
 † genre Cynarctus McGrew, 1937
 † genre Paracynarctus Wang et al. 1999</t>
         </is>
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Paul O. McGrew, « The Genus Cynarctus », Journal of Paleontology, vol. 11, no 5,‎ juillet 1937, p. 444-449 (lire en ligne, consulté le 16 mars 2020).</t>
         </is>
